--- a/biology/Médecine/Art-thérapie_au_Canada/Art-thérapie_au_Canada.xlsx
+++ b/biology/Médecine/Art-thérapie_au_Canada/Art-thérapie_au_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art-th%C3%A9rapie_au_Canada</t>
+          <t>Art-thérapie_au_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’art-thérapie au Canada est une méthode de soins dont la pratique est réservée aux titulaires d'une maîtrise en art-thérapie. Elle y fut introduite à partir de la fin des années 1940 par des personnalités telles que le docteur Fischer, les époux Dewdney et Marie Revaï.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art-th%C3%A9rapie_au_Canada</t>
+          <t>Art-thérapie_au_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Dr. Martin A. Fischer</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dr Martin A. Fischer, un psychiatre, offrait ses services à des patients psychiatriques au Lakeshore Psychiatric Hospital à Toronto. Il a introduit l’art-thérapie dans ses services en 1947. En 1968, il fonde l'Institut d’Art-Thérapie de Toronto, qui promouvait le développement de l’art-thérapie comme profession. Il a aussi joué un rôle déterminant dans la création des Instituts d’Art-Thérapie de Vancouver et de Phoenix, aux États-Unis. Il fonde et fut le premier président de l’Association Canadienne d’Art-Thérapie. Pendant sa carrière, il fut consultant pour l'Ontario Children’s Aid Society, avec laquelle il introduit l’art-thérapie pour les enfants, particulièrement dans le but de prévenir des problèmes émotionnels chez les enfants et adolescents dit «troublés». Il est reconnu internationalement pour ses contributions sur ce sujet, auquel il a dédié sa vie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Martin A. Fischer, un psychiatre, offrait ses services à des patients psychiatriques au Lakeshore Psychiatric Hospital à Toronto. Il a introduit l’art-thérapie dans ses services en 1947. En 1968, il fonde l'Institut d’Art-Thérapie de Toronto, qui promouvait le développement de l’art-thérapie comme profession. Il a aussi joué un rôle déterminant dans la création des Instituts d’Art-Thérapie de Vancouver et de Phoenix, aux États-Unis. Il fonde et fut le premier président de l’Association Canadienne d’Art-Thérapie. Pendant sa carrière, il fut consultant pour l'Ontario Children’s Aid Society, avec laquelle il introduit l’art-thérapie pour les enfants, particulièrement dans le but de prévenir des problèmes émotionnels chez les enfants et adolescents dit «troublés». Il est reconnu internationalement pour ses contributions sur ce sujet, auquel il a dédié sa vie.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art-th%C3%A9rapie_au_Canada</t>
+          <t>Art-thérapie_au_Canada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,16 +556,11 @@
           <t>Selwyn et Irene Dewdney</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le couple encourageait l'utilisation de l'art comme véhicule pour l'émancipation des patients psychiatriques marginalisés. Ensemble, ils ont développé des techniques centrées sur la structuration de l'approche artistique dans le traitement de leurs patients. Ils ont aussi travaillé avec des vétérans de guerre[2].
-Selwyn Dewdney
-Selwyn Dewdney (en) était missionnaire, artiste, enseignant, géographe et écrivain. En 1949, il fut invité au Westminster Veteran's Hospital à London, Ontario, où il fut donné le titre d'art-thérapeute. Il fut rejoint par sa femme, Irene Dewdney en 1954[2].
-En 1972, il quitte les domaines de l'art-thérapie et du travail social[2].
-Irene Dewdney
-“Irene était l’une des dernières d’une race en voie de disparition : une pionnière de l’art-thérapie hautement qualifiée et expérimentée”
-- Linda Nicholas, art-thérapeute, élève et amie d'Irene Dewdney
-Irene a principalement travaillé avec des patients psychiatriques pendant sa carrière, mais vers la fin elle s'est intéressée aussi aux enfants et aux adolescents. Pendant les années soixante-dix, elle était très reconnue dans son domaine, et fut encouragée à enseigner l'art-thérapie. Ce qui était un programme de formation informel est devenu le Post Graduate Diploma Program in Art Therapy à l'Université Western Ontario en 1986[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le couple encourageait l'utilisation de l'art comme véhicule pour l'émancipation des patients psychiatriques marginalisés. Ensemble, ils ont développé des techniques centrées sur la structuration de l'approche artistique dans le traitement de leurs patients. Ils ont aussi travaillé avec des vétérans de guerre.
 </t>
         </is>
       </c>
@@ -562,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art-th%C3%A9rapie_au_Canada</t>
+          <t>Art-thérapie_au_Canada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +586,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Marie Revaï</t>
+          <t>Selwyn et Irene Dewdney</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marie Revaï était une artiste détenant un diplôme en enseignement de Budapest[3]. Après l'invasion communiste de la Hongrie en 1949, Marie et sa sœur se sont enfuies à Paris, où Marie a étudié le cubisme. Les deux sœurs ont immigré au Canada en 1951, plus précisément à Montréal. Marie fut formée au Musée des Beaux-Arts de Montréal et fut engagée en 1957 au Allan Memorial Institute comme spécialiste de l'art. En 1967, elle a été invitée à donner une conférence à Paris pour la Société internationale de psychopathologie de l'expression. En 1972, elle est reconnue comme art-thérapeute agréée par l’American Art Therapy Association[2].
-Pendant sa carrière, elle organisait des expositions pour les œuvres de ses patients psychiatriques, ce qui a plus tard mené à l'établissement du programme d'art-thérapie à l'Université de Concordia en 1983, après avoir captivée Leah Sherman, la directrice Fine Arts à l'Université. Marie Revaï fut un des premiers membres de l'Association Américaine d'Art-Thérapie et de l'American Society of Psychopathology of Expression. Grâce à elle, l'art a commencé à être utilisé comme outil de diagnostic chez les patients psychiatriques[2].
+          <t>Selwyn Dewdney</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selwyn Dewdney (en) était missionnaire, artiste, enseignant, géographe et écrivain. En 1949, il fut invité au Westminster Veteran's Hospital à London, Ontario, où il fut donné le titre d'art-thérapeute. Il fut rejoint par sa femme, Irene Dewdney en 1954.
+En 1972, il quitte les domaines de l'art-thérapie et du travail social.
 </t>
         </is>
       </c>
@@ -594,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Art-th%C3%A9rapie_au_Canada</t>
+          <t>Art-thérapie_au_Canada</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,74 +624,185 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Selwyn et Irene Dewdney</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Irene Dewdney</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">“Irene était l’une des dernières d’une race en voie de disparition : une pionnière de l’art-thérapie hautement qualifiée et expérimentée”
+- Linda Nicholas, art-thérapeute, élève et amie d'Irene Dewdney
+Irene a principalement travaillé avec des patients psychiatriques pendant sa carrière, mais vers la fin elle s'est intéressée aussi aux enfants et aux adolescents. Pendant les années soixante-dix, elle était très reconnue dans son domaine, et fut encouragée à enseigner l'art-thérapie. Ce qui était un programme de formation informel est devenu le Post Graduate Diploma Program in Art Therapy à l'Université Western Ontario en 1986.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Art-thérapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art-th%C3%A9rapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Marie Revaï</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Revaï était une artiste détenant un diplôme en enseignement de Budapest. Après l'invasion communiste de la Hongrie en 1949, Marie et sa sœur se sont enfuies à Paris, où Marie a étudié le cubisme. Les deux sœurs ont immigré au Canada en 1951, plus précisément à Montréal. Marie fut formée au Musée des Beaux-Arts de Montréal et fut engagée en 1957 au Allan Memorial Institute comme spécialiste de l'art. En 1967, elle a été invitée à donner une conférence à Paris pour la Société internationale de psychopathologie de l'expression. En 1972, elle est reconnue comme art-thérapeute agréée par l’American Art Therapy Association.
+Pendant sa carrière, elle organisait des expositions pour les œuvres de ses patients psychiatriques, ce qui a plus tard mené à l'établissement du programme d'art-thérapie à l'Université de Concordia en 1983, après avoir captivée Leah Sherman, la directrice Fine Arts à l'Université. Marie Revaï fut un des premiers membres de l'Association Américaine d'Art-Thérapie et de l'American Society of Psychopathology of Expression. Grâce à elle, l'art a commencé à être utilisé comme outil de diagnostic chez les patients psychiatriques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Art-thérapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art-th%C3%A9rapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Centres de formation provinciaux reconnus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au Canada, les art-thérapeutes doivent avoir au moins une maîtrise ou un diplôme de maîtrise en art-thérapie pour pratiquer cette profession[4].
-Différentes universités et centres de formations offrent des programmes de deuxième cycle à travers le pays qui sont reconnus par l'Association canadienne d'art-thérapie[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Au Canada, les art-thérapeutes doivent avoir au moins une maîtrise ou un diplôme de maîtrise en art-thérapie pour pratiquer cette profession.
+Différentes universités et centres de formations offrent des programmes de deuxième cycle à travers le pays qui sont reconnus par l'Association canadienne d'art-thérapie.
 Ontario
 Toronto Art Therapy Institute
-Graduate Level Diploma in Art Therapy[6]
+Graduate Level Diploma in Art Therapy
 Québec
 Université du Québec en Abitibi-Témiscamingue (offre le seul programme d'enseignement en français au Canada)
-Maîtrise en art-thérapie [7]
+Maîtrise en art-thérapie 
 L'Université de Concordia (Concordia University)
-Art Therapy (MA)[8]
+Art Therapy (MA)
 Colombie-Britannique
 Adler University (Campus de Vancouver)
-Master of Counselling: Art Therapy[9]
-Canadian International Institute of Art Therapy [10]
-Kutenai Art Therapy Institute[11]
-Vancouver Art Therapy Institute[12]
+Master of Counselling: Art Therapy
+Canadian International Institute of Art Therapy 
+Kutenai Art Therapy Institute
+Vancouver Art Therapy Institute
 18-Month Diploma Stream
 Advanced Diploma Stream
 Alberta
 St. Stephen’s College
-Master of Psychotherapy and Spirituality (MPS)[13]
-Post-Master's Art Therapy Diploma (PMATD)[14]
-Spiritually-Informed Creative Arts (GCSICA)[15]
+Master of Psychotherapy and Spirituality (MPS)
+Post-Master's Art Therapy Diploma (PMATD)
+Spiritually-Informed Creative Arts (GCSICA)
 Manitoba
 Winnipeg Holistic Expressive Arts Therapy Institute
-The WHEAT Institute Diploma in Art Therapy[16]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Art-th%C3%A9rapie_au_Canada</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+The WHEAT Institute Diploma in Art Therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Art-thérapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Art-th%C3%A9rapie_au_Canada</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Associations canadiennes d'art-thérapie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Association canadienne d'art-thérapie (ACAT) fut fondée en 1977 dans le but de promouvoir l'émergence de la profession d'art-thérapeute au Canada[17].
-«L’ACAT travaille en collaboration avec les associations provinciales d’art-thérapie pour relever les normes professionnelles dans l’intérêt de la sécurité et de la confiance du public. Cela comprend le respect des normes éthiques; l’établissement de normes et de processus pour les désignations professionnelles et enregistrées pour les thérapeutes de l’art; le travail avec des programmes de formation en art-thérapie pour s’assurer qu’ils respectent les normes éducatives de l'association; la publication d’un magazine en ligne triennal et d’une revue académique biannuelle, et apporter soutien et encouragement de la recherche sur l’art-thérapie et sensibilisation à l’art-thérapie au Canada.»[17]
--   L'Association canadienne d'art-thérapie (ACAT): Organization: What We Do.
-Associations provinciales
-The British Columbia Art Therapy Association [18]
-Ontario Art Therapy Association[19]
-L'Association des art-thérapeutes du Québec [20]</t>
+L'Association canadienne d'art-thérapie (ACAT) fut fondée en 1977 dans le but de promouvoir l'émergence de la profession d'art-thérapeute au Canada.
+«L’ACAT travaille en collaboration avec les associations provinciales d’art-thérapie pour relever les normes professionnelles dans l’intérêt de la sécurité et de la confiance du public. Cela comprend le respect des normes éthiques; l’établissement de normes et de processus pour les désignations professionnelles et enregistrées pour les thérapeutes de l’art; le travail avec des programmes de formation en art-thérapie pour s’assurer qu’ils respectent les normes éducatives de l'association; la publication d’un magazine en ligne triennal et d’une revue académique biannuelle, et apporter soutien et encouragement de la recherche sur l’art-thérapie et sensibilisation à l’art-thérapie au Canada.»
+-   L'Association canadienne d'art-thérapie (ACAT): Organization: What We Do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Art-thérapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art-th%C3%A9rapie_au_Canada</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Associations canadiennes d'art-thérapie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Associations provinciales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The British Columbia Art Therapy Association 
+Ontario Art Therapy Association
+L'Association des art-thérapeutes du Québec </t>
         </is>
       </c>
     </row>
